--- a/Data/EC/NIT-9011132594.xlsx
+++ b/Data/EC/NIT-9011132594.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D7B21A1-3485-4F1B-A66B-27F8364DD35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB091962-5E77-43EF-AF7E-4779CF894CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1D60C741-0C25-43B3-A923-9B4A4ACECE90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4AC11FD0-7191-4C4F-B86E-EAE715F1491A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,76 +74,76 @@
     <t>1909</t>
   </si>
   <si>
+    <t>1143379195</t>
+  </si>
+  <si>
+    <t>LEYDIS CAROLINA PALENCIA BARRIOS</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1143359733</t>
+  </si>
+  <si>
+    <t>MARIANA CANTILLO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
     <t>21469985</t>
   </si>
   <si>
     <t>LINA MARIA AGUDELO ZAPATA</t>
-  </si>
-  <si>
-    <t>1143359733</t>
-  </si>
-  <si>
-    <t>MARIANA CANTILLO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>1143379195</t>
-  </si>
-  <si>
-    <t>LEYDIS CAROLINA PALENCIA BARRIOS</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -187,7 +187,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4241ADAB-EFA4-5477-73FC-F6C91DC03A80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2161255-D835-5BB8-4AC9-1B0870C0E4D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,28 +908,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7DC796-D287-4B2B-996E-9467D222A5AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF40F4D1-DCE8-4041-B420-FC8C56A97C11}">
   <dimension ref="B2:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -942,7 +942,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -953,7 +953,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -964,7 +964,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -975,8 +975,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
@@ -991,8 +991,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1007,8 +1007,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
@@ -1023,8 +1023,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>39</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1106,122 +1106,122 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>26919</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>877000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G18" s="18">
-        <v>828000</v>
+        <v>877000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G19" s="18">
-        <v>828000</v>
+        <v>877000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>27604</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>828000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>828000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1233,41 +1233,41 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>828000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1279,18 +1279,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1302,64 +1302,64 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>828000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>828000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1371,41 +1371,41 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>828000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1417,18 +1417,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1440,41 +1440,41 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
       </c>
       <c r="G32" s="18">
-        <v>828116</v>
+        <v>828000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1486,41 +1486,41 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
       </c>
       <c r="G34" s="18">
-        <v>828116</v>
+        <v>828000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1532,156 +1532,156 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
       </c>
       <c r="G36" s="18">
-        <v>828116</v>
+        <v>828000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
       </c>
       <c r="G37" s="18">
-        <v>828116</v>
+        <v>828000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F38" s="18">
-        <v>35112</v>
+        <v>25396</v>
       </c>
       <c r="G38" s="18">
-        <v>877000</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
       </c>
       <c r="G39" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F40" s="18">
         <v>33125</v>
       </c>
       <c r="G40" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F41" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G41" s="18">
-        <v>877000</v>
+        <v>828116</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1693,18 +1693,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
@@ -1716,41 +1716,41 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
         <v>33125</v>
       </c>
       <c r="G44" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1762,41 +1762,41 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F46" s="18">
         <v>33125</v>
       </c>
       <c r="G46" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -1808,41 +1808,41 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
       </c>
       <c r="G48" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -1854,64 +1854,64 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
       </c>
       <c r="G50" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
       </c>
       <c r="G51" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F52" s="18">
         <v>33125</v>
@@ -1923,41 +1923,41 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>27604</v>
+        <v>33125</v>
       </c>
       <c r="G53" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -1969,21 +1969,21 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F55" s="18">
-        <v>25396</v>
+        <v>33125</v>
       </c>
       <c r="G55" s="18">
         <v>828116</v>
@@ -1992,30 +1992,30 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F56" s="24">
-        <v>26919</v>
+        <v>33125</v>
       </c>
       <c r="G56" s="24">
-        <v>877000</v>
+        <v>828116</v>
       </c>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="26"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="32" t="s">
         <v>45</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="32" t="s">
         <v>44</v>
       </c>

--- a/Data/EC/NIT-9011132594.xlsx
+++ b/Data/EC/NIT-9011132594.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB091962-5E77-43EF-AF7E-4779CF894CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F980554C-DBFF-406D-A0A8-DEEF313C60BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4AC11FD0-7191-4C4F-B86E-EAE715F1491A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28F22517-6E58-4E44-B220-EFB9D8721EB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,76 +74,76 @@
     <t>1909</t>
   </si>
   <si>
+    <t>1143359733</t>
+  </si>
+  <si>
+    <t>MARIANA CANTILLO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>21469985</t>
+  </si>
+  <si>
+    <t>LINA MARIA AGUDELO ZAPATA</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>1143379195</t>
   </si>
   <si>
     <t>LEYDIS CAROLINA PALENCIA BARRIOS</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
     <t>2103</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>1143359733</t>
-  </si>
-  <si>
-    <t>MARIANA CANTILLO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>21469985</t>
-  </si>
-  <si>
-    <t>LINA MARIA AGUDELO ZAPATA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -187,7 +187,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,7 +242,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -255,9 +257,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -457,23 +457,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,10 +501,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2161255-D835-5BB8-4AC9-1B0870C0E4D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC17BDA-CD35-DEEB-74FA-7DE862478020}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,28 +908,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF40F4D1-DCE8-4041-B420-FC8C56A97C11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4C5C61-E229-41B5-A670-E6030E37B4A7}">
   <dimension ref="B2:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -942,7 +942,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -953,7 +953,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -964,7 +964,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -975,8 +975,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
@@ -991,8 +991,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1007,8 +1007,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
@@ -1023,8 +1023,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>39</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1089,13 +1089,13 @@
         <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>828000</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1106,42 +1106,42 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>26919</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>877000</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>877000</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1155,444 +1155,444 @@
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>877000</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>27604</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="18">
         <v>33125</v>
       </c>
       <c r="G21" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F22" s="18">
         <v>33125</v>
       </c>
       <c r="G22" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F23" s="18">
         <v>33125</v>
       </c>
       <c r="G23" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F24" s="18">
         <v>33125</v>
       </c>
       <c r="G24" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
       </c>
       <c r="G25" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
       </c>
       <c r="G26" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
       </c>
       <c r="G27" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
       </c>
       <c r="G28" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
       </c>
       <c r="G29" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
       </c>
       <c r="G30" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
       </c>
       <c r="G31" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
       </c>
       <c r="G32" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
       </c>
       <c r="G33" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
       </c>
       <c r="G34" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
       </c>
       <c r="G35" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
       </c>
       <c r="G36" s="18">
-        <v>828000</v>
+        <v>828116</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G37" s="18">
-        <v>828000</v>
+        <v>877803</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
-        <v>25396</v>
+        <v>33125</v>
       </c>
       <c r="G38" s="18">
         <v>828116</v>
@@ -1601,18 +1601,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1624,41 +1624,41 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F40" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
         <v>33125</v>
@@ -1670,18 +1670,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1693,18 +1693,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
@@ -1716,18 +1716,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F44" s="18">
         <v>33125</v>
@@ -1739,18 +1739,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1762,18 +1762,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F46" s="18">
         <v>33125</v>
@@ -1785,18 +1785,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -1808,18 +1808,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
@@ -1831,18 +1831,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -1854,18 +1854,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
@@ -1877,18 +1877,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -1900,18 +1900,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F52" s="18">
         <v>33125</v>
@@ -1923,21 +1923,21 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F53" s="18">
-        <v>33125</v>
+        <v>27604</v>
       </c>
       <c r="G53" s="18">
         <v>828116</v>
@@ -1946,18 +1946,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -1969,44 +1969,44 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F55" s="18">
-        <v>33125</v>
+        <v>26919</v>
       </c>
       <c r="G55" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D56" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="F56" s="24">
-        <v>33125</v>
+        <v>25396</v>
       </c>
       <c r="G56" s="24">
         <v>828116</v>
@@ -2015,7 +2015,7 @@
       <c r="I56" s="25"/>
       <c r="J56" s="26"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="32" t="s">
         <v>45</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="32" t="s">
         <v>44</v>
       </c>
